--- a/src/test/resources/datatest/DataTest.xlsx
+++ b/src/test/resources/datatest/DataTest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LongLaptop\IdeaProjects\TestNGCucumber\src\test\resources\datatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LongLaptop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDE0ED-CD36-479E-8F82-482F2484D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB7CF36-3C23-4A12-AF67-09FE7D4365E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{83C5E241-0C0E-4EB8-8B58-444296DC3291}"/>
+    <workbookView xWindow="6630" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{83C5E241-0C0E-4EB8-8B58-444296DC3291}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,34 +26,269 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>admin@example.com</t>
-  </si>
-  <si>
-    <t>Scenario Name</t>
-  </si>
-  <si>
-    <t>Successful login</t>
-  </si>
-  <si>
-    <t>Invalid login</t>
-  </si>
-  <si>
-    <t>Empty Username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>profile1</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>profile2</t>
+  </si>
+  <si>
+    <t>profile3</t>
+  </si>
+  <si>
+    <t>profile4</t>
+  </si>
+  <si>
+    <t>profile5</t>
+  </si>
+  <si>
+    <t>profile6</t>
+  </si>
+  <si>
+    <t>profile7</t>
+  </si>
+  <si>
+    <t>profile8</t>
+  </si>
+  <si>
+    <t>profile9</t>
+  </si>
+  <si>
+    <t>profile10</t>
+  </si>
+  <si>
+    <t>profile11</t>
+  </si>
+  <si>
+    <t>profile12</t>
+  </si>
+  <si>
+    <t>profile13</t>
+  </si>
+  <si>
+    <t>profile14</t>
+  </si>
+  <si>
+    <t>profile15</t>
+  </si>
+  <si>
+    <t>profile16</t>
+  </si>
+  <si>
+    <t>profile17</t>
+  </si>
+  <si>
+    <t>profile18</t>
+  </si>
+  <si>
+    <t>profile19</t>
+  </si>
+  <si>
+    <t>profile20</t>
+  </si>
+  <si>
+    <t>profile21</t>
+  </si>
+  <si>
+    <t>profile22</t>
+  </si>
+  <si>
+    <t>profile23</t>
+  </si>
+  <si>
+    <t>profile24</t>
+  </si>
+  <si>
+    <t>profile25</t>
+  </si>
+  <si>
+    <t>profile26</t>
+  </si>
+  <si>
+    <t>profile27</t>
+  </si>
+  <si>
+    <t>profile28</t>
+  </si>
+  <si>
+    <t>profile29</t>
+  </si>
+  <si>
+    <t>profile30</t>
+  </si>
+  <si>
+    <t>profile31</t>
+  </si>
+  <si>
+    <t>profile32</t>
+  </si>
+  <si>
+    <t>profile33</t>
+  </si>
+  <si>
+    <t>profile34</t>
+  </si>
+  <si>
+    <t>profile35</t>
+  </si>
+  <si>
+    <t>profile36</t>
+  </si>
+  <si>
+    <t>profile37</t>
+  </si>
+  <si>
+    <t>profile38</t>
+  </si>
+  <si>
+    <t>profile39</t>
+  </si>
+  <si>
+    <t>profile40</t>
+  </si>
+  <si>
+    <t>profile41</t>
+  </si>
+  <si>
+    <t>profile42</t>
+  </si>
+  <si>
+    <t>profile43</t>
+  </si>
+  <si>
+    <t>profile44</t>
+  </si>
+  <si>
+    <t>profile45</t>
+  </si>
+  <si>
+    <t>profile46</t>
+  </si>
+  <si>
+    <t>profile47</t>
+  </si>
+  <si>
+    <t>profile48</t>
+  </si>
+  <si>
+    <t>profile49</t>
+  </si>
+  <si>
+    <t>profile50</t>
+  </si>
+  <si>
+    <t>profile51</t>
+  </si>
+  <si>
+    <t>profile52</t>
+  </si>
+  <si>
+    <t>profile53</t>
+  </si>
+  <si>
+    <t>profile54</t>
+  </si>
+  <si>
+    <t>profile55</t>
+  </si>
+  <si>
+    <t>profile56</t>
+  </si>
+  <si>
+    <t>profile57</t>
+  </si>
+  <si>
+    <t>profile58</t>
+  </si>
+  <si>
+    <t>profile59</t>
+  </si>
+  <si>
+    <t>profile60</t>
+  </si>
+  <si>
+    <t>profile61</t>
+  </si>
+  <si>
+    <t>profile62</t>
+  </si>
+  <si>
+    <t>profile63</t>
+  </si>
+  <si>
+    <t>profile64</t>
+  </si>
+  <si>
+    <t>profile65</t>
+  </si>
+  <si>
+    <t>profile66</t>
+  </si>
+  <si>
+    <t>profile67</t>
+  </si>
+  <si>
+    <t>profile68</t>
+  </si>
+  <si>
+    <t>profile69</t>
+  </si>
+  <si>
+    <t>profile70</t>
+  </si>
+  <si>
+    <t>profile71</t>
+  </si>
+  <si>
+    <t>profile72</t>
+  </si>
+  <si>
+    <t>profile73</t>
+  </si>
+  <si>
+    <t>profile74</t>
+  </si>
+  <si>
+    <t>profile75</t>
+  </si>
+  <si>
+    <t>profile76</t>
+  </si>
+  <si>
+    <t>profile77</t>
+  </si>
+  <si>
+    <t>Profile6</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Profile7</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +336,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -123,13 +373,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,40 +707,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014D864-FB69-4647-AE75-233DAE739298}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="21.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="20.7109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="13.42578125"/>
+    <col min="4" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,27 +748,841 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1">
-        <v>123456</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2595DB5C-9085-4964-BA6B-1FC4558D04A0}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{58588C0D-A645-4316-889D-9326B5704EE5}"/>
-  </hyperlinks>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -520,19 +1596,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="13.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="14.28515625"/>
+    <col min="5" max="16384" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
